--- a/data/outputs/OR/36.xlsx
+++ b/data/outputs/OR/36.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ53"/>
+  <dimension ref="A1:BR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1148,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1358,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1564,6 +1572,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1769,6 +1778,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1974,6 +1984,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2187,6 +2198,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2412,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2617,6 +2630,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2830,6 +2844,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3043,6 +3058,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3252,6 +3268,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3461,6 +3478,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3670,6 +3688,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3879,6 +3898,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>2575327</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4092,6 +4116,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4293,6 +4318,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4502,6 +4528,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>2493133</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4711,6 +4742,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4924,6 +4956,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5133,6 +5166,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5334,6 +5368,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>2865739</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5543,6 +5582,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5744,6 +5784,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5953,6 +5994,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>2434914</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6166,6 +6212,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6371,6 +6418,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6584,6 +6632,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6793,6 +6842,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7006,6 +7056,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7215,6 +7266,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>3784610</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7424,6 +7480,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3787555</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7625,6 +7686,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7830,6 +7892,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3266524</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8039,6 +8106,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>6868912</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8248,6 +8320,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3535429</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8453,6 +8530,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>2966725</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8654,6 +8736,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8871,6 +8954,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>2728445</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9080,6 +9168,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9166,7 +9255,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Defourny, Boris/0000-0003-0405-5538; </t>
+          <t>Defourny, Boris/0000-0003-0405-5538;</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -9297,6 +9386,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9506,6 +9596,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9715,6 +9806,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9924,6 +10016,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10133,6 +10226,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10342,6 +10436,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>2749595</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10559,6 +10658,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>2420654</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10768,6 +10872,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10969,6 +11074,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4184412</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11178,6 +11288,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11379,6 +11490,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11588,6 +11700,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>2538855</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
